--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -476,14 +476,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Беспроводные наушники - это идеальное решение для всех, кто ценит свободу передвижения и комфорт при использовании гарнитуры. 
-**Наушники беспроводные черные** - это стильный аксессуар, который не только впечатлит своим современным дизайном, но и устройством, способствующим наилучшему звучанию и удобству. Благодаря без проводной технологии, вы сможете свободно наслаждаться любимой музыкой или проводить важные разговоры, не ограничивая себя проводами и шнурами. 
-**Наушники безпроводные** - это новое слово в мире аудиотехники! Они оснащены передовой системой беспроводной связи, которая обеспечивает качественное воспроизведение звука на расстоянии до 10 метров от источника звука. Благодаря этому, вы сможете слушать свою любимую музыку или говорить по телефону, не привязывая себя проводами к устройству. 
-**Наушники беспроводные большие черные** - это настоящее удовольствие для любителей музыки. Большие наушники обеспечивают высокую степень звукового комфорта и идеальное прилегание к ушам. Их черный цвет придает этому аксессуару элегантность и изысканность, что делает его стильным дополнением к вашему образу. 
-**Наушники черные** - это классический выбор для тех, кто ценит элегантность и строгость дизайна. Черный цвет подчеркивает вашу индивидуальность и стиль, а также отличается высокой практичностью, не видно следов пыли или пота на поверхности. 
-**Беспроводные наушники черные** - это инновационное решение для любителей качественного звука и комфорта. Благодаря возможности беспроводного подключения, вы сможете использовать эти наушники с любым устройством, поддерживающим технологию Bluetooth. 
-**Наушники беспроводные для телефона черные блютуз** - это универсальное решение для тех, кто хочет наслаждаться кристально чистым звуком во время разговоров или прослушивания музыки. Благодаря технологии Bluetooth, вы сможете подключить эти наушники к любому мобильному устройству и наслаждаться отличным звучанием, не зависимо от места и времени.
-Беспроводные наушники - это идеальный выбор для тех, кто хочет сочетать превосходное качество звука и удобство использования. Покупая эти наушники, вы получаете стильный аксессуар, способный удовлетворить самый изысканный вкус. Наслаждайтесь свободой передвижения и кристально чистым звуком с беспроводными наушниками черного цвета. Удовлетворяйте себя именно тем, что заслужили!</t>
+          <t>Беспроводные наушники – это стильные и удобные устройства, позволяющие наслаждаться качественным звуком без ненужных проводов. Черная расцветка добавляет еще больше элегантности и привлекательности этим наушникам.
+Наушники оснащены передовыми технологиями, что делает их идеальным выбором для мобильного телефона или планшета. Благодаря беспроводному соединению по Bluetooth, вам больше не придется запутываться в проводах или ограничиваться в движении. Они подойдут как для ежедневного использования, так и для активных тренировок или спортивных мероприятий.
+Благодаря своему эргономичному дизайну, эти наушники обеспечивают идеальную посадку и комфорт на протяжении всего времени использования. Вам больше не придется беспокоиться о неразборчивом или сниженном качестве звука, так как наушники обладают высокими характеристиками звуковоспроизведения.
+Наслаждайтесь своей любимой музыкой без помех и наслаждайтесь впечатляющими низкими частотами и четкими высокими. Наушники также имеют встроенный микрофон и пульт управления, что позволяет легко принимать вызовы, регулировать громкость и переключаться между треками, не доставая телефон из кармана.
+Эти беспроводные наушники черного цвета идеально сочетают в себе стиль и функциональность. Благодаря своей большой габаритной части, они привлекут внимание и создадут максимально эффектный образ. Выделите свой стиль и наслаждайтесь непревзойденным звуковым опытом с данными наушниками.</t>
         </is>
       </c>
     </row>
@@ -508,15 +505,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">h20floss – ирригатор, который станет незаменимым помощником в поддержании чистоты и здоровья вашей полости рта. Устраняя все, даже самые недоступные для обычной зубной щетки, остатки пищи и бактерии, этот портативный ирригатор позволяет осуществить комплексный подход к уходу за зубами и деснами. 
-Главное для здоровья рта – это регулярное удаление налета и зубного камня, а также омывание десен. Именно это и обеспечивает ирригатор h20floss. Он эффективно удаляет зубной налет, проникая глубоко в промежутки между зубами и полостью рта, недосягаемые для обычной зубной щетки. Это особенно важно для людей, страдающих от заболеваний десен и зубов, таких как пародонтит и кариес.
-Использование портативного ирригатора h20floss позволяет не только поддерживать чистоту полости рта, но и предотвращать возникновение таких проблем, как зубная боль, пародонтоз, запах изо рта и многие другие. Благодаря этой бытовой технике вы даже в поездках или на работе сможете поддерживать красивую улыбку и чистоту полости рта.
-Ирригатор h20floss работает на простом принципе – он образует мощный и пульсирующий поток воды, который ополаскивает рот, десны и междузубные промежутки. Устройство оснащено специальными насадками, которые позволяют индивидуально регулировать давление воды и направление струи. Вы сами выбираете оптимальный режим, который идеально подходит для ваших потребностей и чувствительности полости рта.
-Этот портативный ирригатор идеален для использования в паре со зубной щеткой. Совместное использование зубной щетки и ирригатора гарантирует максимальную чистоту полости рта и эффективное удаление зубного налета. Зубная щетка удаляет мягкий налет с поверхности зубов, а ирригатор позволяет очистить места, недоступные для щетки. Вместе они образуют идеальный дуэт для поддержания красивой и здоровой улыбки.
-Кроме того, ирригатор h20floss идеально подходит для тех, кто пользуется ортодонтической аппаратурой, имеет имплантаты или мосты. Он эффективно очищает промежутки между зубными протезами и элементами ортодонтической системы, предотвращая образование зубного налета и воспаление десен.
-Ну а чтобы вы всегда могли пользоваться ирригатором h20floss, в комплекте с ним идет специальный футляр для хранения и переноски. Он компактен и удобен в использовании, что позволяет всегда иметь ваш ирригатор под рукой, куда бы вы ни отправились.
-В заключение, ирригатор h20floss – это инновационная и незаменимая бытовая техника для гигиены полости рта. Он эффективно удаляет зубной налет, осуществляет массаж и омывание десен, предотвращает возникновение заболеваний и поддерживает вашу улыбку всегда свежей и здоровой. Попробуйте ирригатор h20floss и убедитесь в его эффективности и удобстве!
-</t>
+          <t>h20floss - это портативный ирригатор для зубов. Это уникальное устройство, которое сочетает в себе преимущества ирригатора и зубной щетки. 
+Использование ирригатора h20floss является эффективным способом поддерживать и улучшать гигиену полости рта. Он позволяет очищать межзубные промежутки и пространство под деснами, где обычная зубная щетка не может достичь. 
+Этот ирригатор является идеальным решением для людей, ведущих активный образ жизни и часто находящихся в дороге. Благодаря его портативному дизайну, вы можете взять его с собой в любую поездку или использовать в любом уголке мира. Он маленький по размеру, но мощный по своим функциям. 
+**Ирригатор для зубов** h20floss оснащен современной технологией, позволяющей обеспечить максимально эффективную очистку полости рта. Его мощный струйный поток воды удаляет налет и остатки пищи, предотвращая образование зубного камня и препятствуя развитию кариеса и заболеваний десен. 
+**Бытовая техника** h20floss разработана с учетом всех безопасных стандартов и проста в использовании. Устройство оснащено регулируемой мощностью струи, что позволяет вам настроить интенсивность очистки согласно вашим предпочтениям. 
+Более того, этот портативный ирригатор может использоваться с любыми зубными щетками, что делает его универсальным инструментом для поддержания здоровья полости рта. Вы можете совмещать использование ирригатора с обычной зубной щеткой или использовать его отдельно, в зависимости от ваших предпочтений и потребностей. 
+**Итак, если вы ищете компактное и эффективное решение для поддержания гигиены полости рта, ирригатор h20floss - ваш идеальный выбор!**</t>
         </is>
       </c>
     </row>
@@ -541,15 +536,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>**Вибратор вакуумно-волновой** - это уникальная секс игрушка для взрослых, которая обеспечивает потрясающее удовлетворение и множество оргазмов. Если вы ищете интимную игрушку, которая сделает вашу интимную жизнь насыщенной и незабываемой, то этот вибратор идеально подойдет для вас.  С его помощью вы сможете открыть новые грани сексуальности и удовлетворения, получая максимальное удовольствие.
-**Вибратор вакуумно-волновой** является великолепным выбором для всех любителей экспериментов и новых ощущений. Он обладает высоким качеством и инновационными технологиями, которые позволяют достичь невероятных результатов в сексуальном плане.
-**Вибраторы** и **стимуляторы** сегодня являются популярными средствами для достижения оргазма. И именно этот вибратор предлагает вам нечто особенное - комбинацию вакуумного и волнового стимуляции. С таким вибратором, вы получите неповторимые ощущения, которые не сравнимы ни с чем другим.
-**Вагинальный** вибратор обладает множеством уникальных функций и режимов вибрации. Он способен стимулировать точку G и точку К, что помогает достичь более ярких ощущений и удовлетворения. Вагинальные мышцы будут просто содрогаться от сладострастных волн удовольствия.
-Один из главных достоинств **вибратора вакуумно-волнового** состоит в том, что он абсолютно безопасен. Он изготовлен из медицинского силикона, который не вызывает аллергических реакций и не содержит вредных веществ. Вы можете использовать его совершенно спокойно и наслаждаться каждой минутой, не беспокоясь о своем здоровье.
-**Вибратор** также имеет возможность изменения силы вибрации и режимов работы, что позволяет добиться максимально комфортных условий для каждого пользовательницы. Вы можете выбирать интенсивность вибрации в зависимости от своих индивидуальных предпочтений и потребностей.
-**Женский вибратор** вакуумно-волновой обладает привлекательным дизайном и удобной эргономикой. Он идеально сидит в руке и дает возможность полностью контролировать процесс получения удовольствия. У него также есть дополнительный элемент управления, который позволяет вам изменять режимы работы вибратора одним нажатием кнопки.
-Не забывайте, что **игрушки для секса** созданы для удовольствия и развлечения. Этот вибратор вакуумно-волновой прекрасно справится со своей задачей и подарит вам море наслаждения. Он абсолютно безопасен, легок в использовании и обладает превосходными характеристиками.
-Не откладывайте свое удовольствие на потом, приобретите **вибратор вакуумно-волновой**, и вы поймете, что именно он был недостающим звеном в вашей интимной жизни. Откройте для себя новые возможности и наслаждайтесь каждым днем, используя эту фантастическую секс игрушку для взрослых.</t>
+          <t>Вибратор вакуумно-волновой - это потрясающая сексуальная игрушка, которая привнесет новые ощущения и удовольствие в вашу интимную жизнь. Ключевыми словами, которые отражают ее основные характеристики и преимущества, являются **вибратор, секс игрушки, игрушки для взрослых, хуй, вибраторы, вибраторы и стимуляторы, секс игрушка, игрушки для взрослый, вибратор женский, игрушки для секса, игрушки 18+.**
+Этот вибратор обладает широким спектром функций, которые помогут вам достичь наивысшего уровня наслаждения. Используя его, вы сможете создать незабываемую атмосферу экстаза и полного расслабления. 
+Сочетание вакуума и волновых импульсов позволяет этому вибратору создать мощное воздействие на самые чувствительные эрогенные зоны вашего тела. Благодаря этому, он способен довести вас до ярчайшего оргазма за считанные минуты. Ценители настоящих экстремальных ощущений и необычных решений оценят все преимущества этого вибратора.
+**Вибратор вакуумно-волновой** оснащен инновационной технологией, которая обеспечивает плавное и глубокое проникновение, при этом не причиняя боли или дискомфорта. Он мягко обхватывает вашу интимную зону, создавая ощущение идеальной посадки и исключительного комфорта. Вы будете удивлены, насколько нежно и непринужденно этот вибратор обращается с вашим телом.
+Одной из ключевых особенностей **вибратора вакуумно-волнового** является его уникальный дизайн, который дополняет удивительную функциональность этой секс игрушки. Он выполнен из высококачественного гипоаллергенного материала, который полностью безопасен для вашего тела. Вы можете использовать этот вибратор совместно с любым смазкой на водной основе, что усилит ощущения и позволит вам насладиться каждым моментом.
+**Вибратор вакуумно-волновой** идеально подчеркнет вашу индивидуальность и стиль. Его элегантный внешний вид и привлекательные цветовые решения привлекут внимание и не оставят равнодушными. Он станет прекрасным дополнением к вашей коллекции секс игрушек, а также отличным подарком для вашего партнера. 
+Позвольте себе окунуться в мир неземного наслаждения и исследования своих самых сокровенных желаний с помощью **вибратора вакуумно-волнового**. Вы достойны получить максимум удовольствия и испытать все преимущества, которые дарит эта уникальная секс игрушка. Не откладывайте свое счастье на завтра - приобретите его прямо сейчас!</t>
         </is>
       </c>
     </row>
